--- a/Итоговый_проект_таблицы.xlsx
+++ b/Итоговый_проект_таблицы.xlsx
@@ -3,11 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Таблица_классов_эквивалентности" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Таблица_граничных_значений_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="матрица_состояний_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="граничные_значения_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="тест-кейсы_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="спецификация_3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -17,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Поле</t>
   </si>
@@ -155,6 +159,366 @@
   </si>
   <si>
     <t xml:space="preserve">4 и 51 символ</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Создан</t>
+  </si>
+  <si>
+    <t>Оплачен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В обработке</t>
+  </si>
+  <si>
+    <t>Собран</t>
+  </si>
+  <si>
+    <t>Отправлен</t>
+  </si>
+  <si>
+    <t>Доставлен</t>
+  </si>
+  <si>
+    <t>Получен</t>
+  </si>
+  <si>
+    <t>Отменен</t>
+  </si>
+  <si>
+    <t>Возвращен</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата получена</t>
+  </si>
+  <si>
+    <t>Невозможно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отмена заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обработка начата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сборка завершена</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>tags_id</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название тест-кейса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод запроса</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tело запроса (JSON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка минимального значения идентификатора (`id`)</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/pet/add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "category": {"id": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "name": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Граница минимального значения</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка максимального значения идентификатора (`id`)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 99999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Граница максимального значения</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка отрицательного значения идентификатора (`id`)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неверное значение идентификатора</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка нуля в поле категории (`category.id`)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "name": "dog"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствие категории</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка нулевого статуса питомца</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "category": {"id": 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "name": "dog"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status": null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствие статуса питомца</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка максимально допустимой длины строки имени питомца (255 символов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "name": "x".repeat(255)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальная длина имени питомца</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка предельно допустимого размера коллекции (массива тегов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "tags": ["x".repeat(255)]*100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большие размеры коллекций</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наименьшей длины строки имени питомца (одна буква)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "name": "a"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальная длина имени питомца</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка корректной обработки множества изображений питомца (в коллекции)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "photoUrls": ["url1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "url2"]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коллекция изображений питомца</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка изменения статуса питомца на недопустимый статус (статус = 'unknown')</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/pet/update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status": "unknown"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Недопустимое состояние питомца</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка удаления последнего элемента коллекции (коллекция фото)</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/pet/deletePhoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "photoUrl": "url2"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаление последней фотографии</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка повторного удаления несуществующего элемента коллекции (несуществующая фотография)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "photoUrl": "nonexistent_url"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несуществующий элемент коллекции</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка минимально допустимого количества тегов (один тег)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "tags": [{"id": 1}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один тег</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наличия ошибки при добавлении повторяющегося тега (повторный тег с одинаковым именем)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "tags": [{"id": 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"id": 1}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повторяющийся тег</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка возможности добавить питомца с чрезмерно большой длиной имени (свыше 255 символов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "name": "x".repeat(256)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Превышение максимальной длины имени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестовый номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тело запроса JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 0, "category": {"id": 0}, "name": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 99999999, "category": {"id": 0}, "name": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": -1, "category": {"id": 0}, "name": ""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 0}, "name": "dog"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "name": "dog", "status": null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "name": "x".repeat(255)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "tags": ["x".repeat(255)] * 100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "name": "a"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "photoUrls": ["url1", "url2"]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "status": "unknown"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "photoUrl": "url2"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "photoUrl": "nonexistent_url"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "tags": [{"id": 1}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "tags": [{"id": 1}, {"id": 1}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id": 1, "category": {"id": 1}, "name": "x".repeat(256)}</t>
   </si>
 </sst>
 </file>
@@ -795,7 +1159,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.140625"/>
     <col customWidth="1" min="2" max="2" width="25.140625"/>
@@ -879,4 +1243,1217 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.57421875"/>
+    <col customWidth="1" min="2" max="2" width="15.7109375"/>
+    <col customWidth="1" min="3" max="3" width="16.28125"/>
+    <col customWidth="1" min="4" max="4" width="18.00390625"/>
+    <col customWidth="1" min="5" max="5" width="17.8515625"/>
+    <col customWidth="1" min="6" max="6" width="14.28125"/>
+    <col customWidth="1" min="7" max="7" width="12.57421875"/>
+    <col customWidth="1" min="8" max="8" width="14.28125"/>
+    <col customWidth="1" min="9" max="9" width="15.140625"/>
+    <col customWidth="1" min="10" max="10" width="15.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>99999999</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.140625"/>
+    <col customWidth="1" min="2" max="2" width="95.140625"/>
+    <col customWidth="1" min="3" max="3" width="14.7109375"/>
+    <col customWidth="1" min="5" max="5" width="18.421875"/>
+    <col customWidth="1" min="6" max="6" width="27.57421875"/>
+    <col customWidth="1" min="7" max="7" width="26.140625"/>
+    <col customWidth="1" min="8" max="8" width="38.57421875"/>
+    <col customWidth="1" min="9" max="9" width="39.28125"/>
+    <col customWidth="1" min="10" max="10" width="32.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2">
+        <v>201</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3">
+        <v>201</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7">
+        <v>201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8">
+        <v>201</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>201</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10">
+        <v>201</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11">
+        <v>400</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13">
+        <v>404</v>
+      </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14">
+        <v>201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16">
+        <v>400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.140625"/>
+    <col customWidth="1" min="2" max="2" width="16.57421875"/>
+    <col customWidth="1" min="3" max="3" width="15.140625"/>
+    <col customWidth="1" min="4" max="4" width="52.28125"/>
+    <col customWidth="1" min="5" max="5" width="21.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>